--- a/020_data/2021_PA_chicks.xlsx
+++ b/020_data/2021_PA_chicks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/Hanks-Research/2020_Kestrel_Plots/020_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4C7784-A306-2148-AAAD-6A983EF27882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4721DF4B-317E-8D4F-95B7-08A3EEF4BC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2120" yWindow="1960" windowWidth="26300" windowHeight="15540" xr2:uid="{95827425-5EF1-DD42-B7B4-F5203BD27826}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="264">
   <si>
     <t>Allebach E</t>
   </si>
@@ -925,7 +925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -964,6 +964,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1278,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9C9610-A606-0E43-8BFC-D077C5435FC7}">
-  <dimension ref="A1:N490"/>
+  <dimension ref="A1:O490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
-      <selection activeCell="G500" sqref="E493:G500"/>
+    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
+      <selection activeCell="O488" sqref="O488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1290,7 +1291,7 @@
     <col min="7" max="7" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="14" customFormat="1" ht="74.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="14" customFormat="1" ht="74.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>250</v>
       </c>
@@ -1333,8 +1334,11 @@
       <c r="N1" s="17" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="O1" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -1359,7 +1363,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -1391,8 +1395,11 @@
       <c r="N3" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="18">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -1415,7 +1422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -1438,7 +1445,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2021</v>
       </c>
@@ -1461,7 +1468,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -1484,7 +1491,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -1514,8 +1521,11 @@
       <c r="N8" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="18">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -1538,7 +1548,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -1561,7 +1571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2021</v>
       </c>
@@ -1584,7 +1594,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2021</v>
       </c>
@@ -1607,7 +1617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="187" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="187" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -1637,8 +1647,11 @@
       <c r="N13" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="18">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2021</v>
       </c>
@@ -1661,7 +1674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -1684,7 +1697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2021</v>
       </c>
@@ -1707,7 +1720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2021</v>
       </c>
@@ -1730,7 +1743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2021</v>
       </c>
@@ -1760,8 +1773,11 @@
       <c r="N18" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="O18" s="18">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2021</v>
       </c>
@@ -1789,8 +1805,11 @@
       <c r="N19" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="18">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2021</v>
       </c>
@@ -1810,7 +1829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="153" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2021</v>
       </c>
@@ -1838,8 +1857,11 @@
       <c r="N21">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="18">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2021</v>
       </c>
@@ -1859,7 +1881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2021</v>
       </c>
@@ -1879,7 +1901,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2021</v>
       </c>
@@ -1899,7 +1921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2021</v>
       </c>
@@ -1919,7 +1941,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2021</v>
       </c>
@@ -1947,8 +1969,11 @@
       <c r="N26">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="O26" s="18">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2021</v>
       </c>
@@ -1976,8 +2001,11 @@
       <c r="N27">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="18">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2021</v>
       </c>
@@ -1997,7 +2025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2021</v>
       </c>
@@ -2017,7 +2045,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2021</v>
       </c>
@@ -2037,7 +2065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2021</v>
       </c>
@@ -2057,7 +2085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2021</v>
       </c>
@@ -2085,8 +2113,11 @@
       <c r="N32">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="18">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2021</v>
       </c>
@@ -2106,7 +2137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2021</v>
       </c>
@@ -2126,7 +2157,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2021</v>
       </c>
@@ -2146,7 +2177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="136" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2021</v>
       </c>
@@ -2174,8 +2205,11 @@
       <c r="N36">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O36" s="18">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2021</v>
       </c>
@@ -2195,7 +2229,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2021</v>
       </c>
@@ -2215,7 +2249,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2021</v>
       </c>
@@ -2243,8 +2277,11 @@
       <c r="N39">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="18">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2021</v>
       </c>
@@ -2264,7 +2301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2021</v>
       </c>
@@ -2284,7 +2321,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2021</v>
       </c>
@@ -2304,7 +2341,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2021</v>
       </c>
@@ -2324,7 +2361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2021</v>
       </c>
@@ -2352,8 +2389,11 @@
       <c r="N44">
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="18">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2021</v>
       </c>
@@ -2373,7 +2413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2021</v>
       </c>
@@ -2393,7 +2433,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2021</v>
       </c>
@@ -2413,7 +2453,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2021</v>
       </c>
@@ -2441,8 +2481,11 @@
       <c r="N48">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="18">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2021</v>
       </c>
@@ -2462,7 +2505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2021</v>
       </c>
@@ -2482,7 +2525,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2021</v>
       </c>
@@ -2502,7 +2545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2021</v>
       </c>
@@ -2522,7 +2565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2021</v>
       </c>
@@ -2550,8 +2593,11 @@
       <c r="N53">
         <v>24</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="18">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2021</v>
       </c>
@@ -2571,7 +2617,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2021</v>
       </c>
@@ -2591,7 +2637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2021</v>
       </c>
@@ -2611,7 +2657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2021</v>
       </c>
@@ -2631,7 +2677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2021</v>
       </c>
@@ -2659,8 +2705,11 @@
       <c r="N58">
         <v>15</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="18">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2021</v>
       </c>
@@ -2680,7 +2729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2021</v>
       </c>
@@ -2700,7 +2749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2021</v>
       </c>
@@ -2720,7 +2769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2021</v>
       </c>
@@ -2740,7 +2789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2021</v>
       </c>
@@ -2768,8 +2817,11 @@
       <c r="N63">
         <v>14</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="18">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2021</v>
       </c>
@@ -2789,7 +2841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2021</v>
       </c>
@@ -2809,7 +2861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2021</v>
       </c>
@@ -2829,7 +2881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2021</v>
       </c>
@@ -2857,8 +2909,11 @@
       <c r="N67">
         <v>15</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="18">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2021</v>
       </c>
@@ -2878,7 +2933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2021</v>
       </c>
@@ -2898,7 +2953,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2021</v>
       </c>
@@ -2918,7 +2973,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2021</v>
       </c>
@@ -2946,8 +3001,11 @@
       <c r="N71">
         <v>19</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="18">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2021</v>
       </c>
@@ -2967,7 +3025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2021</v>
       </c>
@@ -2987,7 +3045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2021</v>
       </c>
@@ -3007,7 +3065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2021</v>
       </c>
@@ -3027,7 +3085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2021</v>
       </c>
@@ -3055,8 +3113,11 @@
       <c r="N76">
         <v>14</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="18">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2021</v>
       </c>
@@ -3076,7 +3137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2021</v>
       </c>
@@ -3096,7 +3157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2021</v>
       </c>
@@ -3116,7 +3177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2021</v>
       </c>
@@ -3136,7 +3197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2021</v>
       </c>
@@ -3164,8 +3225,11 @@
       <c r="N81">
         <v>17</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="18">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2021</v>
       </c>
@@ -3185,7 +3249,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2021</v>
       </c>
@@ -3205,7 +3269,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2021</v>
       </c>
@@ -3225,7 +3289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2021</v>
       </c>
@@ -3245,7 +3309,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2021</v>
       </c>
@@ -3273,8 +3337,11 @@
       <c r="N86">
         <v>13</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="18">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2021</v>
       </c>
@@ -3294,7 +3361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2021</v>
       </c>
@@ -3314,7 +3381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2021</v>
       </c>
@@ -3334,7 +3401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2021</v>
       </c>
@@ -3362,8 +3429,11 @@
       <c r="N90">
         <v>20</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="18">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2021</v>
       </c>
@@ -3383,7 +3453,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2021</v>
       </c>
@@ -3403,7 +3473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2021</v>
       </c>
@@ -3423,7 +3493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2021</v>
       </c>
@@ -3451,8 +3521,11 @@
       <c r="N94">
         <v>14</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="18">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2021</v>
       </c>
@@ -3472,7 +3545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2021</v>
       </c>
@@ -3500,8 +3573,11 @@
       <c r="N96">
         <v>17</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="18">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2021</v>
       </c>
@@ -3521,7 +3597,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2021</v>
       </c>
@@ -3541,7 +3617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2021</v>
       </c>
@@ -3561,7 +3637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2021</v>
       </c>
@@ -3581,7 +3657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2021</v>
       </c>
@@ -3609,8 +3685,11 @@
       <c r="N101">
         <v>19</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="18">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2021</v>
       </c>
@@ -3630,7 +3709,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2021</v>
       </c>
@@ -3650,7 +3729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2021</v>
       </c>
@@ -3670,7 +3749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2021</v>
       </c>
@@ -3690,7 +3769,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2021</v>
       </c>
@@ -3718,8 +3797,11 @@
       <c r="N106">
         <v>19</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O106" s="18">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2021</v>
       </c>
@@ -3739,7 +3821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2021</v>
       </c>
@@ -3759,7 +3841,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2021</v>
       </c>
@@ -3779,7 +3861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2021</v>
       </c>
@@ -3807,8 +3889,11 @@
       <c r="N110">
         <v>14</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O110" s="18">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2021</v>
       </c>
@@ -3828,7 +3913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2021</v>
       </c>
@@ -3848,7 +3933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2021</v>
       </c>
@@ -3868,7 +3953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" ht="136" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2021</v>
       </c>
@@ -3893,8 +3978,11 @@
       <c r="N114">
         <v>10</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O114" s="18">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2021</v>
       </c>
@@ -3911,7 +3999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2021</v>
       </c>
@@ -3928,7 +4016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2021</v>
       </c>
@@ -3945,7 +4033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2021</v>
       </c>
@@ -3962,7 +4050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" ht="136" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2021</v>
       </c>
@@ -3990,8 +4078,11 @@
       <c r="N119">
         <v>12</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O119" s="18">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2021</v>
       </c>
@@ -4011,7 +4102,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2021</v>
       </c>
@@ -4031,7 +4122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2021</v>
       </c>
@@ -4051,7 +4142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" ht="136" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2021</v>
       </c>
@@ -4079,8 +4170,11 @@
       <c r="N123">
         <v>19</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O123" s="18">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2021</v>
       </c>
@@ -4100,7 +4194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2021</v>
       </c>
@@ -4128,8 +4222,11 @@
       <c r="N125">
         <v>16</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O125" s="18">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2021</v>
       </c>
@@ -4149,7 +4246,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2021</v>
       </c>
@@ -4177,8 +4274,11 @@
       <c r="N127">
         <v>12</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O127" s="18">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2021</v>
       </c>
@@ -4198,7 +4298,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2021</v>
       </c>
@@ -4218,7 +4318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2021</v>
       </c>
@@ -4238,7 +4338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2021</v>
       </c>
@@ -4258,7 +4358,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2021</v>
       </c>
@@ -4286,8 +4386,11 @@
       <c r="N132">
         <v>20</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O132" s="18">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2021</v>
       </c>
@@ -4307,7 +4410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2021</v>
       </c>
@@ -4327,7 +4430,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2021</v>
       </c>
@@ -4347,7 +4450,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2021</v>
       </c>
@@ -4375,8 +4478,11 @@
       <c r="N136">
         <v>20</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O136" s="18">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2021</v>
       </c>
@@ -4396,7 +4502,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2021</v>
       </c>
@@ -4424,8 +4530,11 @@
       <c r="N138">
         <v>19</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O138" s="18">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2021</v>
       </c>
@@ -4445,7 +4554,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2021</v>
       </c>
@@ -4473,8 +4582,11 @@
       <c r="N140">
         <v>16</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O140" s="18">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2021</v>
       </c>
@@ -4494,7 +4606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2021</v>
       </c>
@@ -4514,7 +4626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2021</v>
       </c>
@@ -4534,7 +4646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2021</v>
       </c>
@@ -4554,7 +4666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2021</v>
       </c>
@@ -4582,8 +4694,11 @@
       <c r="N145">
         <v>13</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O145" s="18">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2021</v>
       </c>
@@ -4603,7 +4718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" ht="136" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2021</v>
       </c>
@@ -4631,8 +4746,11 @@
       <c r="N147">
         <v>26</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O147" s="18">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2021</v>
       </c>
@@ -4652,7 +4770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2021</v>
       </c>
@@ -4680,8 +4798,11 @@
       <c r="N149">
         <v>16</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O149" s="18">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2021</v>
       </c>
@@ -4701,7 +4822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2021</v>
       </c>
@@ -4721,7 +4842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2021</v>
       </c>
@@ -4741,7 +4862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2021</v>
       </c>
@@ -4761,7 +4882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" ht="153" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2021</v>
       </c>
@@ -4789,8 +4910,11 @@
       <c r="N154">
         <v>18</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O154" s="18">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2021</v>
       </c>
@@ -4810,7 +4934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2021</v>
       </c>
@@ -4830,7 +4954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2021</v>
       </c>
@@ -4850,7 +4974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2021</v>
       </c>
@@ -4870,7 +4994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2021</v>
       </c>
@@ -4898,8 +5022,11 @@
       <c r="N159">
         <v>23</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O159" s="18">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2021</v>
       </c>
@@ -4919,7 +5046,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2021</v>
       </c>
@@ -4939,7 +5066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2021</v>
       </c>
@@ -4959,7 +5086,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2021</v>
       </c>
@@ -4979,7 +5106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2021</v>
       </c>
@@ -5007,8 +5134,11 @@
       <c r="N164">
         <v>18</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O164" s="18">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2021</v>
       </c>
@@ -5028,7 +5158,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2021</v>
       </c>
@@ -5048,7 +5178,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2021</v>
       </c>
@@ -5076,8 +5206,11 @@
       <c r="N167">
         <v>12</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O167" s="18">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2021</v>
       </c>
@@ -5097,7 +5230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" ht="153" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2021</v>
       </c>
@@ -5125,8 +5258,11 @@
       <c r="N169">
         <v>15</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O169" s="18">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2021</v>
       </c>
@@ -5146,7 +5282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2021</v>
       </c>
@@ -5166,7 +5302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2021</v>
       </c>
@@ -5192,8 +5328,11 @@
       <c r="N172">
         <v>15</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O172" s="18">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2021</v>
       </c>
@@ -5213,7 +5352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2021</v>
       </c>
@@ -5233,7 +5372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2021</v>
       </c>
@@ -5253,7 +5392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2021</v>
       </c>
@@ -5281,8 +5420,11 @@
       <c r="N176">
         <v>14</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O176" s="18">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2021</v>
       </c>
@@ -5302,7 +5444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2021</v>
       </c>
@@ -5322,7 +5464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2021</v>
       </c>
@@ -5342,7 +5484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" ht="136" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2021</v>
       </c>
@@ -5370,8 +5512,11 @@
       <c r="N180">
         <v>15</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O180" s="18">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2021</v>
       </c>
@@ -5391,7 +5536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2021</v>
       </c>
@@ -5411,7 +5556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2021</v>
       </c>
@@ -5431,7 +5576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:14" ht="170" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" ht="170" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2021</v>
       </c>
@@ -5459,8 +5604,11 @@
       <c r="N184">
         <v>18</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O184" s="18">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2021</v>
       </c>
@@ -5480,7 +5628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>2021</v>
       </c>
@@ -5500,7 +5648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2021</v>
       </c>
@@ -5520,7 +5668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2021</v>
       </c>
@@ -5540,7 +5688,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2021</v>
       </c>
@@ -5568,8 +5716,11 @@
       <c r="N189">
         <v>20</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O189" s="18">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2021</v>
       </c>
@@ -5589,7 +5740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2021</v>
       </c>
@@ -5609,7 +5760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>2021</v>
       </c>
@@ -5629,7 +5780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2021</v>
       </c>
@@ -5649,7 +5800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2021</v>
       </c>
@@ -5677,8 +5828,11 @@
       <c r="N194">
         <v>16</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O194" s="18">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2021</v>
       </c>
@@ -5698,7 +5852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2021</v>
       </c>
@@ -5718,7 +5872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2021</v>
       </c>
@@ -5738,7 +5892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2021</v>
       </c>
@@ -5758,7 +5912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2021</v>
       </c>
@@ -5786,8 +5940,11 @@
       <c r="N199">
         <v>22</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O199" s="18">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>2021</v>
       </c>
@@ -5807,7 +5964,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2021</v>
       </c>
@@ -5827,7 +5984,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2021</v>
       </c>
@@ -5847,7 +6004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2021</v>
       </c>
@@ -5867,7 +6024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2021</v>
       </c>
@@ -5888,7 +6045,7 @@
       </c>
       <c r="M204" s="10"/>
     </row>
-    <row r="205" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2021</v>
       </c>
@@ -5916,8 +6073,11 @@
       <c r="N205">
         <v>14</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O205" s="18">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2021</v>
       </c>
@@ -5937,7 +6097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2021</v>
       </c>
@@ -5957,7 +6117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2021</v>
       </c>
@@ -5977,7 +6137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2021</v>
       </c>
@@ -5997,7 +6157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>2021</v>
       </c>
@@ -6025,8 +6185,11 @@
       <c r="N210">
         <v>16</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O210" s="18">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2021</v>
       </c>
@@ -6046,7 +6209,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2021</v>
       </c>
@@ -6066,7 +6229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2021</v>
       </c>
@@ -6086,7 +6249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" ht="136" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2021</v>
       </c>
@@ -6114,8 +6277,11 @@
       <c r="N214">
         <v>25</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O214" s="18">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2021</v>
       </c>
@@ -6135,7 +6301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2021</v>
       </c>
@@ -6155,7 +6321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>2021</v>
       </c>
@@ -6175,7 +6341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2021</v>
       </c>
@@ -6195,7 +6361,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="219" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2021</v>
       </c>
@@ -6223,8 +6389,11 @@
       <c r="N219">
         <v>23</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O219" s="18">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2021</v>
       </c>
@@ -6244,7 +6413,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2021</v>
       </c>
@@ -6264,7 +6433,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2021</v>
       </c>
@@ -6284,7 +6453,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2021</v>
       </c>
@@ -6304,7 +6473,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="224" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2021</v>
       </c>
@@ -6332,8 +6501,11 @@
       <c r="N224">
         <v>15</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O224" s="18">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2021</v>
       </c>
@@ -6353,7 +6525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>2021</v>
       </c>
@@ -6373,7 +6545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2021</v>
       </c>
@@ -6401,8 +6573,11 @@
       <c r="N227">
         <v>20</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O227" s="18">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>2021</v>
       </c>
@@ -6422,7 +6597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>2021</v>
       </c>
@@ -6442,7 +6617,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>2021</v>
       </c>
@@ -6462,7 +6637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2021</v>
       </c>
@@ -6490,8 +6665,11 @@
       <c r="N231">
         <v>23</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O231" s="18">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>2021</v>
       </c>
@@ -6511,7 +6689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2021</v>
       </c>
@@ -6531,7 +6709,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2021</v>
       </c>
@@ -6551,7 +6729,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2021</v>
       </c>
@@ -6571,7 +6749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="236" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2021</v>
       </c>
@@ -6599,8 +6777,11 @@
       <c r="N236">
         <v>21</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O236" s="18">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2021</v>
       </c>
@@ -6620,7 +6801,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>2021</v>
       </c>
@@ -6640,7 +6821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>2021</v>
       </c>
@@ -6660,7 +6841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="240" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>2021</v>
       </c>
@@ -6688,8 +6869,11 @@
       <c r="N240">
         <v>19</v>
       </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O240" s="18">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>2021</v>
       </c>
@@ -6709,7 +6893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>2021</v>
       </c>
@@ -6729,7 +6913,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>2021</v>
       </c>
@@ -6749,7 +6933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="244" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>2021</v>
       </c>
@@ -6777,8 +6961,11 @@
       <c r="N244">
         <v>16</v>
       </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O244" s="18">
+        <v>44332</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2021</v>
       </c>
@@ -6798,7 +6985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>2021</v>
       </c>
@@ -6818,7 +7005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>2021</v>
       </c>
@@ -6838,7 +7025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="248" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>2021</v>
       </c>
@@ -6866,8 +7053,11 @@
       <c r="N248">
         <v>24</v>
       </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O248" s="18">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>2021</v>
       </c>
@@ -6887,7 +7077,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>2021</v>
       </c>
@@ -6907,7 +7097,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>2021</v>
       </c>
@@ -6927,7 +7117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>2021</v>
       </c>
@@ -6947,7 +7137,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="253" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>2021</v>
       </c>
@@ -6975,8 +7165,11 @@
       <c r="N253">
         <v>17</v>
       </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O253" s="18">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>2021</v>
       </c>
@@ -6996,7 +7189,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>2021</v>
       </c>
@@ -7016,7 +7209,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>2021</v>
       </c>
@@ -7036,7 +7229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>2021</v>
       </c>
@@ -7056,7 +7249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="258" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>2021</v>
       </c>
@@ -7084,8 +7277,11 @@
       <c r="N258">
         <v>23</v>
       </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O258" s="18">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>2021</v>
       </c>
@@ -7105,7 +7301,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>2021</v>
       </c>
@@ -7125,7 +7321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>2021</v>
       </c>
@@ -7145,7 +7341,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" ht="153" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>2021</v>
       </c>
@@ -7173,8 +7369,11 @@
       <c r="N262">
         <v>21</v>
       </c>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O262" s="18">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>2021</v>
       </c>
@@ -7194,7 +7393,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>2021</v>
       </c>
@@ -7214,7 +7413,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>2021</v>
       </c>
@@ -7234,7 +7433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="266" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" ht="153" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>2021</v>
       </c>
@@ -7262,8 +7461,11 @@
       <c r="N266">
         <v>24</v>
       </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O266" s="18">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>2021</v>
       </c>
@@ -7283,7 +7485,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>2021</v>
       </c>
@@ -7303,7 +7505,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>2021</v>
       </c>
@@ -7323,7 +7525,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="270" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>2021</v>
       </c>
@@ -7351,8 +7553,11 @@
       <c r="N270">
         <v>21</v>
       </c>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O270" s="18">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>2021</v>
       </c>
@@ -7372,7 +7577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>2021</v>
       </c>
@@ -7392,7 +7597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>2021</v>
       </c>
@@ -7412,7 +7617,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>2021</v>
       </c>
@@ -7432,7 +7637,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="275" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>2021</v>
       </c>
@@ -7460,8 +7665,11 @@
       <c r="N275">
         <v>9</v>
       </c>
-    </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O275" s="18">
+        <v>44360</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>2021</v>
       </c>
@@ -7481,7 +7689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>2021</v>
       </c>
@@ -7501,7 +7709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>2021</v>
       </c>
@@ -7521,7 +7729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>2021</v>
       </c>
@@ -7541,7 +7749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>2021</v>
       </c>
@@ -7569,8 +7777,11 @@
       <c r="N280">
         <v>15</v>
       </c>
-    </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O280" s="18">
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>2021</v>
       </c>
@@ -7590,7 +7801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>2021</v>
       </c>
@@ -7610,7 +7821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>2021</v>
       </c>
@@ -7630,7 +7841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>2021</v>
       </c>
@@ -7650,7 +7861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>2021</v>
       </c>
@@ -7678,8 +7889,11 @@
       <c r="N285">
         <v>19</v>
       </c>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O285" s="18">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>2021</v>
       </c>
@@ -7699,7 +7913,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>2021</v>
       </c>
@@ -7719,7 +7933,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>2021</v>
       </c>
@@ -7739,7 +7953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="289" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>2021</v>
       </c>
@@ -7767,8 +7981,11 @@
       <c r="N289">
         <v>17</v>
       </c>
-    </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O289" s="18">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>2021</v>
       </c>
@@ -7788,7 +8005,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>2021</v>
       </c>
@@ -7808,7 +8025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2021</v>
       </c>
@@ -7828,7 +8045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>2021</v>
       </c>
@@ -7848,7 +8065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:14" ht="204" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" ht="204" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>2021</v>
       </c>
@@ -7876,8 +8093,11 @@
       <c r="N294">
         <v>22</v>
       </c>
-    </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O294" s="18">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>2021</v>
       </c>
@@ -7897,7 +8117,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>2021</v>
       </c>
@@ -7917,7 +8137,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="297" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" ht="136" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>2021</v>
       </c>
@@ -7945,8 +8165,11 @@
       <c r="N297">
         <v>13</v>
       </c>
-    </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O297" s="18">
+        <v>44383</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>2021</v>
       </c>
@@ -7966,7 +8189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>2021</v>
       </c>
@@ -7986,7 +8209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>2021</v>
       </c>
@@ -8006,7 +8229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" ht="136" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>2021</v>
       </c>
@@ -8034,8 +8257,11 @@
       <c r="N301">
         <v>13</v>
       </c>
-    </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O301" s="18">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>2021</v>
       </c>
@@ -8055,7 +8281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>2021</v>
       </c>
@@ -8075,7 +8301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>2021</v>
       </c>
@@ -8095,7 +8321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>2021</v>
       </c>
@@ -8123,8 +8349,11 @@
       <c r="N305">
         <v>17</v>
       </c>
-    </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O305" s="18">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>2021</v>
       </c>
@@ -8144,7 +8373,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2021</v>
       </c>
@@ -8164,7 +8393,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>2021</v>
       </c>
@@ -8184,7 +8413,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="309" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>2021</v>
       </c>
@@ -8212,8 +8441,11 @@
       <c r="N309">
         <v>23</v>
       </c>
-    </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O309" s="18">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>2021</v>
       </c>
@@ -8233,7 +8465,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>2021</v>
       </c>
@@ -8253,7 +8485,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>2021</v>
       </c>
@@ -8273,7 +8505,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>2021</v>
       </c>
@@ -8293,7 +8525,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>2021</v>
       </c>
@@ -8321,8 +8553,11 @@
       <c r="N314">
         <v>10</v>
       </c>
-    </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O314" s="18">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>2021</v>
       </c>
@@ -8342,7 +8577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>2021</v>
       </c>
@@ -8362,7 +8597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>2021</v>
       </c>
@@ -8382,7 +8617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>2021</v>
       </c>
@@ -8410,8 +8645,11 @@
       <c r="N318">
         <v>24</v>
       </c>
-    </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O318" s="18">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>2021</v>
       </c>
@@ -8431,7 +8669,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>2021</v>
       </c>
@@ -8451,7 +8689,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="321" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" ht="153" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>2021</v>
       </c>
@@ -8479,8 +8717,11 @@
       <c r="N321">
         <v>19</v>
       </c>
-    </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O321" s="18">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>2021</v>
       </c>
@@ -8500,7 +8741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>2021</v>
       </c>
@@ -8520,7 +8761,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>2021</v>
       </c>
@@ -8540,7 +8781,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="325" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>2021</v>
       </c>
@@ -8568,8 +8809,11 @@
       <c r="N325">
         <v>18</v>
       </c>
-    </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O325" s="18">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>2021</v>
       </c>
@@ -8589,7 +8833,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>2021</v>
       </c>
@@ -8609,7 +8853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>2021</v>
       </c>
@@ -8629,7 +8873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>2021</v>
       </c>
@@ -8649,7 +8893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="330" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>2021</v>
       </c>
@@ -8677,8 +8921,11 @@
       <c r="N330">
         <v>16</v>
       </c>
-    </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O330" s="18">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>2021</v>
       </c>
@@ -8698,7 +8945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>2021</v>
       </c>
@@ -8718,7 +8965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>2021</v>
       </c>
@@ -8738,7 +8985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>2021</v>
       </c>
@@ -8758,7 +9005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="335" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>2021</v>
       </c>
@@ -8786,8 +9033,11 @@
       <c r="N335">
         <v>18</v>
       </c>
-    </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O335" s="18">
+        <v>44358</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>2021</v>
       </c>
@@ -8807,7 +9057,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>2021</v>
       </c>
@@ -8827,7 +9077,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>2021</v>
       </c>
@@ -8847,7 +9097,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="339" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>2021</v>
       </c>
@@ -8875,8 +9125,11 @@
       <c r="N339">
         <v>14</v>
       </c>
-    </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O339" s="18">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>2021</v>
       </c>
@@ -8896,7 +9149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>2021</v>
       </c>
@@ -8916,7 +9169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>2021</v>
       </c>
@@ -8936,7 +9189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>2021</v>
       </c>
@@ -8956,7 +9209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="344" spans="1:14" ht="170" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" ht="170" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>2021</v>
       </c>
@@ -8984,8 +9237,11 @@
       <c r="N344">
         <v>14</v>
       </c>
-    </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O344" s="18">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>2021</v>
       </c>
@@ -9005,7 +9261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>2021</v>
       </c>
@@ -9025,7 +9281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="347" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>2021</v>
       </c>
@@ -9053,8 +9309,11 @@
       <c r="N347">
         <v>15</v>
       </c>
-    </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O347" s="18">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>2021</v>
       </c>
@@ -9074,7 +9333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>2021</v>
       </c>
@@ -9094,7 +9353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>2021</v>
       </c>
@@ -9114,7 +9373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>2021</v>
       </c>
@@ -9134,7 +9393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" ht="153" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>2021</v>
       </c>
@@ -9155,7 +9414,7 @@
       </c>
       <c r="M352" s="10"/>
     </row>
-    <row r="353" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>2021</v>
       </c>
@@ -9183,8 +9442,11 @@
       <c r="N353">
         <v>16</v>
       </c>
-    </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O353" s="18">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>2021</v>
       </c>
@@ -9204,7 +9466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>2021</v>
       </c>
@@ -9224,7 +9486,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>2021</v>
       </c>
@@ -9244,7 +9506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>2021</v>
       </c>
@@ -9264,7 +9526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="358" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" ht="136" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>2021</v>
       </c>
@@ -9292,8 +9554,11 @@
       <c r="N358">
         <v>14</v>
       </c>
-    </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O358" s="18">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>2021</v>
       </c>
@@ -9313,7 +9578,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>2021</v>
       </c>
@@ -9333,7 +9598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>2021</v>
       </c>
@@ -9353,7 +9618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>2021</v>
       </c>
@@ -9373,7 +9638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="363" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>2021</v>
       </c>
@@ -9401,8 +9666,11 @@
       <c r="N363">
         <v>15</v>
       </c>
-    </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O363" s="18">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>2021</v>
       </c>
@@ -9422,7 +9690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="365" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>2021</v>
       </c>
@@ -9443,7 +9711,7 @@
       </c>
       <c r="M365" s="10"/>
     </row>
-    <row r="366" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>2021</v>
       </c>
@@ -9471,8 +9739,11 @@
       <c r="N366">
         <v>23</v>
       </c>
-    </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O366" s="18">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>2021</v>
       </c>
@@ -9492,7 +9763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>2021</v>
       </c>
@@ -9512,7 +9783,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>2021</v>
       </c>
@@ -9532,7 +9803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="370" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>2021</v>
       </c>
@@ -9560,8 +9831,11 @@
       <c r="N370">
         <v>19</v>
       </c>
-    </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O370" s="18">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>2021</v>
       </c>
@@ -9581,7 +9855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>2021</v>
       </c>
@@ -9601,7 +9875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>2021</v>
       </c>
@@ -9621,7 +9895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>2021</v>
       </c>
@@ -9641,7 +9915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="375" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>2021</v>
       </c>
@@ -9666,8 +9940,11 @@
       <c r="N375">
         <v>10</v>
       </c>
-    </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O375" s="18">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>2021</v>
       </c>
@@ -9684,7 +9961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>2021</v>
       </c>
@@ -9701,7 +9978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>2021</v>
       </c>
@@ -9718,7 +9995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>2021</v>
       </c>
@@ -9735,7 +10012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="380" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>2021</v>
       </c>
@@ -9763,8 +10040,11 @@
       <c r="N380">
         <v>20</v>
       </c>
-    </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O380" s="18">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>2021</v>
       </c>
@@ -9784,7 +10064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>2021</v>
       </c>
@@ -9801,7 +10081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>2021</v>
       </c>
@@ -9818,7 +10098,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>2021</v>
       </c>
@@ -9835,7 +10115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="385" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" ht="136" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>2021</v>
       </c>
@@ -9866,8 +10146,11 @@
       <c r="N385">
         <v>16</v>
       </c>
-    </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O385" s="18">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>2021</v>
       </c>
@@ -9887,7 +10170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>2021</v>
       </c>
@@ -9907,7 +10190,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>2021</v>
       </c>
@@ -9925,7 +10208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="389" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>2021</v>
       </c>
@@ -9953,8 +10236,11 @@
       <c r="N389">
         <v>13</v>
       </c>
-    </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O389" s="18">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>2021</v>
       </c>
@@ -9974,7 +10260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="391" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>2021</v>
       </c>
@@ -10002,8 +10288,11 @@
       <c r="N391">
         <v>18</v>
       </c>
-    </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O391" s="18">
+        <v>44346</v>
+      </c>
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>2021</v>
       </c>
@@ -10023,7 +10312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>2021</v>
       </c>
@@ -10043,7 +10332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>2021</v>
       </c>
@@ -10063,7 +10352,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="395" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>2021</v>
       </c>
@@ -10091,8 +10380,11 @@
       <c r="N395">
         <v>19</v>
       </c>
-    </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O395" s="18">
+        <v>44344</v>
+      </c>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>2021</v>
       </c>
@@ -10112,7 +10404,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>2021</v>
       </c>
@@ -10132,7 +10424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>2021</v>
       </c>
@@ -10152,7 +10444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="399" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>2021</v>
       </c>
@@ -10180,8 +10472,11 @@
       <c r="N399">
         <v>24</v>
       </c>
-    </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O399" s="18">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>2021</v>
       </c>
@@ -10201,7 +10496,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>2021</v>
       </c>
@@ -10221,7 +10516,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>2021</v>
       </c>
@@ -10241,7 +10536,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="403" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>2021</v>
       </c>
@@ -10269,8 +10564,11 @@
       <c r="N403">
         <v>19</v>
       </c>
-    </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O403" s="18">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>2021</v>
       </c>
@@ -10290,7 +10588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="405" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>2021</v>
       </c>
@@ -10318,8 +10616,11 @@
       <c r="N405">
         <v>16</v>
       </c>
-    </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O405" s="18">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>2021</v>
       </c>
@@ -10339,7 +10640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>2021</v>
       </c>
@@ -10359,7 +10660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>2021</v>
       </c>
@@ -10379,7 +10680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>2021</v>
       </c>
@@ -10399,7 +10700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="410" spans="1:14" ht="255" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" ht="255" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>2021</v>
       </c>
@@ -10420,7 +10721,7 @@
       </c>
       <c r="M410" s="10"/>
     </row>
-    <row r="411" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>2021</v>
       </c>
@@ -10448,8 +10749,11 @@
       <c r="N411">
         <v>14</v>
       </c>
-    </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O411" s="18">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>2021</v>
       </c>
@@ -10469,7 +10773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>2021</v>
       </c>
@@ -10489,7 +10793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>2021</v>
       </c>
@@ -10509,7 +10813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="415" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>2021</v>
       </c>
@@ -10537,8 +10841,11 @@
       <c r="N415">
         <v>29</v>
       </c>
-    </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O415" s="18">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>2021</v>
       </c>
@@ -10558,7 +10865,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>2021</v>
       </c>
@@ -10578,7 +10885,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>2021</v>
       </c>
@@ -10598,7 +10905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="419" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>2021</v>
       </c>
@@ -10626,8 +10933,11 @@
       <c r="N419">
         <v>12</v>
       </c>
-    </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O419" s="18">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>2021</v>
       </c>
@@ -10647,7 +10957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>2021</v>
       </c>
@@ -10667,7 +10977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>2021</v>
       </c>
@@ -10687,7 +10997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="423" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>2021</v>
       </c>
@@ -10715,8 +11025,11 @@
       <c r="N423">
         <v>18</v>
       </c>
-    </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O423" s="18">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>2021</v>
       </c>
@@ -10736,7 +11049,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>2021</v>
       </c>
@@ -10756,7 +11069,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>2021</v>
       </c>
@@ -10776,7 +11089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>2021</v>
       </c>
@@ -10796,7 +11109,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="428" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>2021</v>
       </c>
@@ -10824,8 +11137,11 @@
       <c r="N428">
         <v>16</v>
       </c>
-    </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O428" s="18">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>2021</v>
       </c>
@@ -10845,7 +11161,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>2021</v>
       </c>
@@ -10865,7 +11181,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>2021</v>
       </c>
@@ -10885,7 +11201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>2021</v>
       </c>
@@ -10905,7 +11221,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="433" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:15" ht="153" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>2021</v>
       </c>
@@ -10933,8 +11249,11 @@
       <c r="N433">
         <v>13</v>
       </c>
-    </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O433" s="18">
+        <v>44359</v>
+      </c>
+    </row>
+    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>2021</v>
       </c>
@@ -10954,7 +11273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>2021</v>
       </c>
@@ -10974,7 +11293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="436" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>2021</v>
       </c>
@@ -11002,8 +11321,11 @@
       <c r="N436">
         <v>14</v>
       </c>
-    </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O436" s="18">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>2021</v>
       </c>
@@ -11023,7 +11345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>2021</v>
       </c>
@@ -11043,7 +11365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>2021</v>
       </c>
@@ -11063,7 +11385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="440" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:15" ht="136" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>2021</v>
       </c>
@@ -11091,8 +11413,11 @@
       <c r="N440">
         <v>14</v>
       </c>
-    </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O440" s="18">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>2021</v>
       </c>
@@ -11112,7 +11437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>2021</v>
       </c>
@@ -11132,7 +11457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>2021</v>
       </c>
@@ -11152,7 +11477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>2021</v>
       </c>
@@ -11172,7 +11497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="445" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:15" ht="136" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>2021</v>
       </c>
@@ -11200,8 +11525,11 @@
       <c r="N445">
         <v>13</v>
       </c>
-    </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O445" s="18">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>2021</v>
       </c>
@@ -11221,7 +11549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>2021</v>
       </c>
@@ -11241,7 +11569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>2021</v>
       </c>
@@ -11261,7 +11589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="449" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:15" ht="136" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>2021</v>
       </c>
@@ -11289,8 +11617,11 @@
       <c r="N449">
         <v>23</v>
       </c>
-    </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O449" s="18">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>2021</v>
       </c>
@@ -11310,7 +11641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>2021</v>
       </c>
@@ -11330,7 +11661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>2021</v>
       </c>
@@ -11350,7 +11681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>2021</v>
       </c>
@@ -11370,7 +11701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="454" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:15" ht="136" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>2021</v>
       </c>
@@ -11398,8 +11729,11 @@
       <c r="N454">
         <v>15</v>
       </c>
-    </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O454" s="18">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>2021</v>
       </c>
@@ -11419,7 +11753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>2021</v>
       </c>
@@ -11439,7 +11773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>2021</v>
       </c>
@@ -11459,7 +11793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="458" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>2021</v>
       </c>
@@ -11487,8 +11821,11 @@
       <c r="N458">
         <v>18</v>
       </c>
-    </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O458" s="18">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>2021</v>
       </c>
@@ -11508,7 +11845,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>2021</v>
       </c>
@@ -11528,7 +11865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="461" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>2021</v>
       </c>
@@ -11556,8 +11893,11 @@
       <c r="N461">
         <v>9</v>
       </c>
-    </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O461" s="18">
+        <v>44357</v>
+      </c>
+    </row>
+    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>2021</v>
       </c>
@@ -11577,7 +11917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>2021</v>
       </c>
@@ -11597,7 +11937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>2021</v>
       </c>
@@ -11617,7 +11957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="465" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>2021</v>
       </c>
@@ -11645,8 +11985,11 @@
       <c r="N465">
         <v>19</v>
       </c>
-    </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O465" s="18">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>2021</v>
       </c>
@@ -11666,7 +12009,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>2021</v>
       </c>
@@ -11686,7 +12029,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>2021</v>
       </c>
@@ -11706,7 +12049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>2021</v>
       </c>
@@ -11726,7 +12069,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="470" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:15" ht="136" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>2021</v>
       </c>
@@ -11754,8 +12097,11 @@
       <c r="N470">
         <v>18</v>
       </c>
-    </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O470" s="18">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>2021</v>
       </c>
@@ -11775,7 +12121,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>2021</v>
       </c>
@@ -11795,7 +12141,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>2021</v>
       </c>
@@ -11815,7 +12161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>2021</v>
       </c>
@@ -11835,7 +12181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="475" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>2021</v>
       </c>
@@ -11863,8 +12209,11 @@
       <c r="N475">
         <v>18</v>
       </c>
-    </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O475" s="18">
+        <v>44343</v>
+      </c>
+    </row>
+    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>2021</v>
       </c>
@@ -11884,7 +12233,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>2021</v>
       </c>
@@ -11904,7 +12253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>2021</v>
       </c>
@@ -11924,7 +12273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>2021</v>
       </c>
@@ -11944,7 +12293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="480" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>2021</v>
       </c>
@@ -11972,8 +12321,11 @@
       <c r="N480">
         <v>15</v>
       </c>
-    </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O480" s="18">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>2021</v>
       </c>
@@ -11993,7 +12345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>2021</v>
       </c>
@@ -12013,7 +12365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="483" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>2021</v>
       </c>
@@ -12041,8 +12393,11 @@
       <c r="N483">
         <v>20</v>
       </c>
-    </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O483" s="18">
+        <v>44356</v>
+      </c>
+    </row>
+    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>2021</v>
       </c>
@@ -12062,7 +12417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>2021</v>
       </c>
@@ -12082,7 +12437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>2021</v>
       </c>
@@ -12102,7 +12457,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="487" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>2021</v>
       </c>
@@ -12130,8 +12485,11 @@
       <c r="N487">
         <v>20</v>
       </c>
-    </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O487" s="18">
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>2021</v>
       </c>
@@ -12149,7 +12507,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>2021</v>
       </c>
@@ -12167,7 +12525,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>2021</v>
       </c>
